--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -181,21 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +521,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -574,25 +559,25 @@
         <v>10000</v>
       </c>
       <c r="B2" s="5">
-        <v>851.61</v>
+        <v>833.33</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>9148.39</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1666.66</v>
+        <v>9166.67</v>
+      </c>
+      <c r="F2" s="5">
+        <v>833.33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>388.84</v>
+        <v>452.77</v>
       </c>
       <c r="B3" s="5">
-        <v>15.05</v>
+        <v>33.33</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -601,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>373.79</v>
+        <v>419.44</v>
       </c>
       <c r="F3" s="5">
-        <v>64.02</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -654,10 +639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,10 +659,9 @@
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,12 +703,11 @@
         <v>20</v>
       </c>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
@@ -750,29 +733,30 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7">
-        <v>42019</v>
+        <v>42036</v>
       </c>
       <c r="D3" s="7">
         <v>42019</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5">
-        <v>851.61</v>
+        <v>833.33</v>
       </c>
       <c r="G3" s="4">
-        <v>9148.39</v>
+        <v>9166.67</v>
       </c>
       <c r="H3" s="5">
-        <v>15.05</v>
+        <v>33.33</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -787,24 +771,27 @@
         <v>866.66</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>866.66</v>
       </c>
       <c r="N3" s="5">
         <v>0</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -812,10 +799,10 @@
         <v>833.33</v>
       </c>
       <c r="G4" s="4">
-        <v>8315.06</v>
+        <v>8333.34</v>
       </c>
       <c r="H4" s="5">
-        <v>18.28</v>
+        <v>45.83</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -824,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>851.61</v>
+        <v>879.16</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -835,19 +822,22 @@
       <c r="N4" s="5">
         <v>0</v>
       </c>
-      <c r="Q4" s="5">
-        <v>851.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>879.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -855,10 +845,10 @@
         <v>833.33</v>
       </c>
       <c r="G5" s="4">
-        <v>7481.73</v>
+        <v>7500.01</v>
       </c>
       <c r="H5" s="5">
-        <v>45.74</v>
+        <v>61.11</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -867,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>879.07</v>
+        <v>894.44</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -878,19 +868,22 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
-        <v>879.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>894.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -898,10 +891,10 @@
         <v>833.33</v>
       </c>
       <c r="G6" s="4">
-        <v>6648.4</v>
+        <v>6666.68</v>
       </c>
       <c r="H6" s="5">
-        <v>60.99</v>
+        <v>62.5</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -910,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>894.32</v>
+        <v>895.83</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -921,19 +914,22 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
-        <v>894.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>895.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -941,10 +937,10 @@
         <v>833.33</v>
       </c>
       <c r="G7" s="4">
-        <v>5815.07</v>
+        <v>5833.35</v>
       </c>
       <c r="H7" s="5">
-        <v>55.4</v>
+        <v>55.56</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -953,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>888.73</v>
+        <v>888.89</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -964,19 +960,22 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
-        <v>888.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>888.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -984,10 +983,10 @@
         <v>833.33</v>
       </c>
       <c r="G8" s="4">
-        <v>4981.74</v>
+        <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
-        <v>48.46</v>
+        <v>48.61</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -996,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>881.79</v>
+        <v>881.94</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1007,19 +1006,22 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
-        <v>881.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>881.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1027,10 +1029,10 @@
         <v>833.33</v>
       </c>
       <c r="G9" s="4">
-        <v>4148.41</v>
+        <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
-        <v>41.51</v>
+        <v>41.67</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1039,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>874.84</v>
+        <v>875</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -1050,11 +1052,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
-        <v>874.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1062,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1070,10 +1075,10 @@
         <v>833.33</v>
       </c>
       <c r="G10" s="4">
-        <v>3315.08</v>
+        <v>3333.36</v>
       </c>
       <c r="H10" s="5">
-        <v>34.57</v>
+        <v>34.72</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1082,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>867.9</v>
+        <v>868.05</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -1093,19 +1098,22 @@
       <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="Q10" s="5">
-        <v>867.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>868.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1113,10 +1121,10 @@
         <v>833.33</v>
       </c>
       <c r="G11" s="4">
-        <v>2481.75</v>
+        <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
-        <v>27.63</v>
+        <v>27.78</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1125,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>860.96</v>
+        <v>861.11</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1136,19 +1144,22 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="Q11" s="5">
-        <v>860.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>861.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1156,10 +1167,10 @@
         <v>833.33</v>
       </c>
       <c r="G12" s="4">
-        <v>1648.42</v>
+        <v>1666.7</v>
       </c>
       <c r="H12" s="5">
-        <v>20.68</v>
+        <v>20.83</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1168,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>854.01</v>
+        <v>854.16</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1179,19 +1190,22 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="Q12" s="5">
-        <v>854.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>854.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1199,10 +1213,10 @@
         <v>833.33</v>
       </c>
       <c r="G13" s="5">
-        <v>815.09</v>
+        <v>833.37</v>
       </c>
       <c r="H13" s="5">
-        <v>13.74</v>
+        <v>13.89</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1211,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>847.07</v>
+        <v>847.22</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1222,30 +1236,33 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
-      <c r="Q13" s="5">
-        <v>847.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>847.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>815.09</v>
+        <v>833.37</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>6.79</v>
+        <v>6.94</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1254,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>821.88</v>
+        <v>840.31</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1265,8 +1282,11 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="Q14" s="5">
-        <v>821.88</v>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>840.31</v>
       </c>
     </row>
   </sheetData>
@@ -1279,20 +1299,21 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1328,72 +1349,70 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="5">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>42019</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>866.66</v>
       </c>
-      <c r="F2" s="10">
-        <v>851.61</v>
-      </c>
-      <c r="G2" s="10">
-        <v>15.05</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>9148.39</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="F2" s="5">
+        <v>833.33</v>
+      </c>
+      <c r="G2" s="5">
+        <v>33.33</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9166.67</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="5">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="3">
         <v>10000</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>10000</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -192,6 +197,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -239,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +280,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,10 +681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -658,10 +700,11 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -699,15 +742,16 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
@@ -734,8 +778,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -773,17 +818,18 @@
       <c r="M3" s="5">
         <v>866.66</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5">
         <v>0</v>
       </c>
       <c r="P3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -819,17 +865,18 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <v>879.16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -865,17 +912,18 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>894.44</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -911,17 +959,18 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>895.83</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -957,17 +1006,18 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>888.89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1003,17 +1053,18 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>881.94</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1049,17 +1100,18 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1095,17 +1147,18 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>868.05</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1141,17 +1194,18 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>861.11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1187,17 +1241,18 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>854.16</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1233,17 +1288,18 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>847.22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1279,13 +1335,14 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>840.31</v>
       </c>
     </row>
@@ -1298,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2406-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DLR-EARLY-CASH-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
@@ -120,14 +115,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -186,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,26 +283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,23 +318,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -684,7 +653,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,55 +668,56 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -815,16 +785,14 @@
       <c r="L3" s="5">
         <v>866.66</v>
       </c>
-      <c r="M3" s="5">
-        <v>866.66</v>
-      </c>
-      <c r="N3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
       <c r="O3" s="5">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
@@ -862,16 +830,14 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
       <c r="O4" s="5">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5">
         <v>879.16</v>
       </c>
@@ -909,16 +875,14 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
       <c r="O5" s="5">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5">
         <v>894.44</v>
       </c>
@@ -956,16 +920,14 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5">
         <v>895.83</v>
       </c>
@@ -1003,16 +965,14 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5">
         <v>888.89</v>
       </c>
@@ -1050,16 +1010,14 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
       <c r="O8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5">
         <v>881.94</v>
       </c>
@@ -1097,16 +1055,14 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
       <c r="O9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5">
         <v>875</v>
       </c>
@@ -1144,16 +1100,14 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
       <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5">
         <v>868.05</v>
       </c>
@@ -1191,16 +1145,14 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
       <c r="O11" s="5">
         <v>0</v>
       </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5">
         <v>861.11</v>
       </c>
@@ -1238,16 +1190,14 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
       <c r="O12" s="5">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5">
         <v>854.16</v>
       </c>
@@ -1285,16 +1235,14 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5">
         <v>847.22</v>
       </c>
@@ -1332,16 +1280,14 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5">
         <v>840.31</v>
       </c>
